--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_BLANCK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C067757-9E94-4C61-90DF-8EC8567C0593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830DACB-35CD-4EDB-986B-F777F0962DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1014,30 +1014,79 @@
     <t>Cumulative bound</t>
   </si>
   <si>
-    <t>Natural gas price</t>
-  </si>
-  <si>
-    <t>Electricity from import</t>
-  </si>
-  <si>
-    <t>RES</t>
-  </si>
-  <si>
-    <t>very small</t>
-  </si>
-  <si>
-    <t>All processes BUT gas at the DAYNITE</t>
+    <t>MIN_SOLAR</t>
+  </si>
+  <si>
+    <t>Solar Irradiation Process</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>WIND_OFF</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>Wind Offshore</t>
+  </si>
+  <si>
+    <t>NAT_GAS</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>MIN_WIND_OFF</t>
+  </si>
+  <si>
+    <t>MIN_WIND_ON</t>
+  </si>
+  <si>
+    <t>IMP_NAT_GAS</t>
+  </si>
+  <si>
+    <t>IMP_ELC</t>
+  </si>
+  <si>
+    <t>PJ/yr</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>CUM</t>
+  </si>
+  <si>
+    <t>SEASON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="56">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1047,11 +1096,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Courier"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -1572,7 +1616,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1743,65 +1787,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="338">
+  <cellStyleXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1818,238 +1932,197 @@
     <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2057,118 +2130,104 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="277" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="12" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="277" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="277" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="277" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="277" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="25" borderId="10" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="25" borderId="10" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="54" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="56" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="55" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="55" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="54" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="54" fillId="31" borderId="15" xfId="274" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="54" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="25" borderId="16" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="277" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="53" fillId="31" borderId="17" xfId="274" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="338">
+  <cellStyles count="337">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - akcent 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - akcent 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2447,66 +2506,65 @@
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="Normale_B2020" xfId="278" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="Normalny 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="Normalny 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="Normalny 4" xfId="281" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="Normalny 5" xfId="282" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="Normalny 6" xfId="283" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="Normalny 7" xfId="284" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="Normalny 8" xfId="285" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="Normalny 9" xfId="286" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="Obliczenia" xfId="287" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="Obliczenia 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="Obliczenia 3" xfId="289" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="Obliczenia 4" xfId="290" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="Obliczenia 5" xfId="291" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="Obliczenia 6" xfId="292" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="Obliczenia 7" xfId="293" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="Obliczenia 8" xfId="294" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="295" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="Suma" xfId="296" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="Suma 2" xfId="297" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="Suma 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="Suma 4" xfId="299" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="Suma 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="Suma 6" xfId="301" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="Suma 7" xfId="302" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="Suma 8" xfId="303" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="Tekst objaśnienia" xfId="304" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="Tekst objaśnienia 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="Tekst objaśnienia 3" xfId="306" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="Tekst objaśnienia 4" xfId="307" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="Tekst objaśnienia 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="Tekst objaśnienia 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="Tekst objaśnienia 7" xfId="310" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="Tekst objaśnienia 8" xfId="311" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="312" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 2" xfId="313" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 3" xfId="314" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 4" xfId="315" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 5" xfId="316" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 6" xfId="317" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 7" xfId="318" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 8" xfId="319" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="Tytuł" xfId="320" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="Uwaga" xfId="321" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="Uwaga 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="Uwaga 3" xfId="323" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="Uwaga 4" xfId="324" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="Uwaga 5" xfId="325" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="Uwaga 6" xfId="326" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="Uwaga 7" xfId="327" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="Uwaga 8" xfId="328" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="Złe" xfId="329" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="Złe 2" xfId="330" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="Złe 3" xfId="331" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="Złe 4" xfId="332" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="Złe 5" xfId="333" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="Złe 6" xfId="334" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="Złe 7" xfId="335" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="Złe 8" xfId="336" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="已访问的超链接" xfId="337" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Normalny 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Normalny 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Normalny 4" xfId="280" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Normalny 5" xfId="281" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Normalny 6" xfId="282" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="Normalny 7" xfId="283" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="Normalny 8" xfId="284" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="Normalny 9" xfId="285" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Obliczenia" xfId="286" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Obliczenia 2" xfId="287" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Obliczenia 3" xfId="288" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Obliczenia 4" xfId="289" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Obliczenia 5" xfId="290" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="Obliczenia 6" xfId="291" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="Obliczenia 7" xfId="292" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Obliczenia 8" xfId="293" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="294" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Suma" xfId="295" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Suma 2" xfId="296" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Suma 3" xfId="297" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Suma 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Suma 5" xfId="299" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Suma 6" xfId="300" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Suma 7" xfId="301" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Suma 8" xfId="302" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Tekst objaśnienia" xfId="303" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Tekst objaśnienia 2" xfId="304" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Tekst objaśnienia 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Tekst objaśnienia 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Tekst objaśnienia 5" xfId="307" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Tekst objaśnienia 6" xfId="308" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Tekst objaśnienia 7" xfId="309" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Tekst objaśnienia 8" xfId="310" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="311" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 2" xfId="312" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 3" xfId="313" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 4" xfId="314" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 5" xfId="315" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 6" xfId="316" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 7" xfId="317" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 8" xfId="318" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Tytuł" xfId="319" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Uwaga" xfId="320" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Uwaga 2" xfId="321" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Uwaga 3" xfId="322" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Uwaga 4" xfId="323" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Uwaga 5" xfId="324" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Uwaga 6" xfId="325" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Uwaga 7" xfId="326" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Uwaga 8" xfId="327" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Złe" xfId="328" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Złe 2" xfId="329" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Złe 3" xfId="330" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Złe 4" xfId="331" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Złe 5" xfId="332" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Złe 6" xfId="333" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Złe 7" xfId="334" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Złe 8" xfId="335" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="已访问的超链接" xfId="336" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2593,7 +2651,13 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>^FI_ST: TCH, PRC</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
@@ -3006,8 +3070,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3025,7 +3089,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
@@ -3045,211 +3109,266 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="38.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="19"/>
+    <row r="7" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="F13" s="19"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="24" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3269,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3289,7 +3408,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="1"/>
@@ -3297,274 +3416,303 @@
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="47.25" customHeight="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="B7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="B8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="B9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="B10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="33"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="E14" s="24" t="s">
+      <c r="B11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="19"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3580,10 +3728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3649,7 +3797,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="15"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -3665,15 +3813,15 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -3687,20 +3835,24 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="E5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -3714,25 +3866,24 @@
     </row>
     <row r="6" spans="1:20" ht="47.25" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="26" t="s">
-        <v>74</v>
-      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -3745,80 +3896,170 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="34"/>
-      <c r="H7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="38">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B8" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="34">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="B9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="B10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="35">
         <v>10</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="34"/>
-      <c r="H8" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="38">
+      <c r="F10" s="20"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="B11" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="36">
         <v>50</v>
       </c>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="5"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:20">
       <c r="F12" s="5"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:20">
       <c r="F13" s="5"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:20">
       <c r="F14" s="5"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:20">
       <c r="F15" s="5"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:20">
       <c r="F16" s="5"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="8:10">
+      <c r="H17" s="14"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="8:10">
+      <c r="H18" s="14"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="8:10">
+      <c r="H19" s="14"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="8:10">
+      <c r="H20" s="14"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21" s="14"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" s="14"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" s="14"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="8:10">
+      <c r="H24" s="14"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="8:10">
+      <c r="H25" s="14"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="8:10">
+      <c r="H26" s="14"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -3826,21 +4067,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -3984,24 +4210,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ADE2FD8-87C7-41E1-A1A0-6DF35B741F42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4017,4 +4241,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>